--- a/stock_predictor_ai/data/cleaned/GDDY.xlsx
+++ b/stock_predictor_ai/data/cleaned/GDDY.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2572"/>
+  <dimension ref="A1:F2573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51889,6 +51889,26 @@
         <v>115809</v>
       </c>
     </row>
+    <row r="2573">
+      <c r="A2573" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B2573" t="n">
+        <v>176.5299987792969</v>
+      </c>
+      <c r="C2573" t="n">
+        <v>177.8350067138672</v>
+      </c>
+      <c r="D2573" t="n">
+        <v>175.8249969482422</v>
+      </c>
+      <c r="E2573" t="n">
+        <v>177.6499938964844</v>
+      </c>
+      <c r="F2573" t="n">
+        <v>42690</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/GDDY.xlsx
+++ b/stock_predictor_ai/data/cleaned/GDDY.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2573"/>
+  <dimension ref="A1:F2574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51909,6 +51909,26 @@
         <v>42690</v>
       </c>
     </row>
+    <row r="2574">
+      <c r="A2574" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B2574" t="n">
+        <v>167.9299926757812</v>
+      </c>
+      <c r="C2574" t="n">
+        <v>170.0700073242188</v>
+      </c>
+      <c r="D2574" t="n">
+        <v>167.7400054931641</v>
+      </c>
+      <c r="E2574" t="n">
+        <v>169.5899963378906</v>
+      </c>
+      <c r="F2574" t="n">
+        <v>1476200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/GDDY.xlsx
+++ b/stock_predictor_ai/data/cleaned/GDDY.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2574"/>
+  <dimension ref="A1:F2575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51929,6 +51929,26 @@
         <v>1476200</v>
       </c>
     </row>
+    <row r="2575">
+      <c r="A2575" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B2575" t="n">
+        <v>169.4201049804688</v>
+      </c>
+      <c r="C2575" t="n">
+        <v>170.4499969482422</v>
+      </c>
+      <c r="D2575" t="n">
+        <v>168.5249938964844</v>
+      </c>
+      <c r="E2575" t="n">
+        <v>169.0800018310547</v>
+      </c>
+      <c r="F2575" t="n">
+        <v>89312</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/GDDY.xlsx
+++ b/stock_predictor_ai/data/cleaned/GDDY.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2575"/>
+  <dimension ref="A1:F2576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51949,6 +51949,26 @@
         <v>89312</v>
       </c>
     </row>
+    <row r="2576">
+      <c r="A2576" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B2576" t="n">
+        <v>144.1799926757812</v>
+      </c>
+      <c r="C2576" t="n">
+        <v>147.3300018310547</v>
+      </c>
+      <c r="D2576" t="n">
+        <v>143.2400054931641</v>
+      </c>
+      <c r="E2576" t="n">
+        <v>146.2599945068359</v>
+      </c>
+      <c r="F2576" t="n">
+        <v>731221</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/GDDY.xlsx
+++ b/stock_predictor_ai/data/cleaned/GDDY.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2576"/>
+  <dimension ref="A1:F2571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51869,106 +51871,6 @@
         <v>1335500</v>
       </c>
     </row>
-    <row r="2572">
-      <c r="A2572" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B2572" t="n">
-        <v>177.1300048828125</v>
-      </c>
-      <c r="C2572" t="n">
-        <v>177.9900054931641</v>
-      </c>
-      <c r="D2572" t="n">
-        <v>175.0399932861328</v>
-      </c>
-      <c r="E2572" t="n">
-        <v>175.0399932861328</v>
-      </c>
-      <c r="F2572" t="n">
-        <v>115809</v>
-      </c>
-    </row>
-    <row r="2573">
-      <c r="A2573" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B2573" t="n">
-        <v>176.5299987792969</v>
-      </c>
-      <c r="C2573" t="n">
-        <v>177.8350067138672</v>
-      </c>
-      <c r="D2573" t="n">
-        <v>175.8249969482422</v>
-      </c>
-      <c r="E2573" t="n">
-        <v>177.6499938964844</v>
-      </c>
-      <c r="F2573" t="n">
-        <v>42690</v>
-      </c>
-    </row>
-    <row r="2574">
-      <c r="A2574" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B2574" t="n">
-        <v>167.9299926757812</v>
-      </c>
-      <c r="C2574" t="n">
-        <v>170.0700073242188</v>
-      </c>
-      <c r="D2574" t="n">
-        <v>167.7400054931641</v>
-      </c>
-      <c r="E2574" t="n">
-        <v>169.5899963378906</v>
-      </c>
-      <c r="F2574" t="n">
-        <v>1476200</v>
-      </c>
-    </row>
-    <row r="2575">
-      <c r="A2575" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B2575" t="n">
-        <v>169.4201049804688</v>
-      </c>
-      <c r="C2575" t="n">
-        <v>170.4499969482422</v>
-      </c>
-      <c r="D2575" t="n">
-        <v>168.5249938964844</v>
-      </c>
-      <c r="E2575" t="n">
-        <v>169.0800018310547</v>
-      </c>
-      <c r="F2575" t="n">
-        <v>89312</v>
-      </c>
-    </row>
-    <row r="2576">
-      <c r="A2576" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B2576" t="n">
-        <v>144.1799926757812</v>
-      </c>
-      <c r="C2576" t="n">
-        <v>147.3300018310547</v>
-      </c>
-      <c r="D2576" t="n">
-        <v>143.2400054931641</v>
-      </c>
-      <c r="E2576" t="n">
-        <v>146.2599945068359</v>
-      </c>
-      <c r="F2576" t="n">
-        <v>731221</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
